--- a/nearby方法/wuhan.xlsx
+++ b/nearby方法/wuhan.xlsx
@@ -379,10 +379,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2166"/>
+  <dimension ref="A1:F2115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D984" sqref="D984"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -38468,312 +38468,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2116" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="E2116">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2117" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="E2117">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2118" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="E2118">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2119" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="E2119">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2120" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="E2120">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2121" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="E2121">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2122" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="E2122">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2123" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="E2123">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2124" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="E2124">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2125" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="E2125">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2126" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="E2126">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2127" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="E2127">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2128" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="E2128">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2129" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E2129">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2130" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E2130">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2131" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E2131">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2132" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E2132">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2133" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E2133">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2134" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E2134">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2135" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E2135">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2136" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E2136">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2137" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E2137">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2138" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E2138">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2139" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E2139">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2140" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E2140">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2141" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E2141">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2142" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E2142">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2143" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E2143">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2144" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E2144">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2145" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E2145">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2146" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E2146">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2147" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E2147">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2148" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E2148">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2149" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E2149">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2150" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E2150">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2151" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E2151">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2152" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E2152">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2153" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E2153">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2154" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E2154">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2155" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E2155">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2156" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E2156">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2157" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E2157">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2158" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E2158">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2159" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E2159">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2160" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E2160">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2161" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E2161">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2162" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E2162">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2163" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E2163">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2164" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E2164">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2165" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E2165">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2166" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E2166">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
